--- a/medicine/Mort/Décès_en_1907/Décès_en_1907.xlsx
+++ b/medicine/Mort/Décès_en_1907/Décès_en_1907.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1907</t>
+          <t>Décès_en_1907</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -507,7 +519,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1907</t>
+          <t>Décès_en_1907</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,9 +539,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Janvier
-3 janvier : Mozaffareddine Chah, chah d'Iran de 1896 à 1907 (° 23 mars 1853).
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3 janvier : Mozaffareddine Chah, chah d'Iran de 1896 à 1907 (° 23 mars 1853).
 4 janvier : Micah Bell, Criminel.
 13 janvier : Antonio Montes, matador espagnol (° 20 décembre 1876).
 15 janvier : Clémence de Grandval, compositrice française (° 21 janvier 1828).
@@ -539,16 +555,84 @@
 24 janvier : Félix-Joseph Barrias, peintre français (° 13 septembre 1822).
 25 janvier : René Pottier, coureur cycliste français (° 5 juin 1879).
 30 janvier : Alphonse Monchablon, peintre français (° 12 juin 1835).
-31 janvier : Henry Cros, sculpteur, peintre, céramiste et maître verrier français (° 16 novembre 1840).
-Février
-2 février : Rodolphe Julian, peintre français (° 13 juin 1839).
+31 janvier : Henry Cros, sculpteur, peintre, céramiste et maître verrier français (° 16 novembre 1840).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1907</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1907</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 février : Rodolphe Julian, peintre français (° 13 juin 1839).
 5 février : Ludwig Thuille, compositeur, pédagogue et théoricien autrichien (° 30 novembre 1861).
 11 février : Alfred Beau, peintre, photographe, céramiste et conservateur de musée français (° 1829).
 14 février : Adolf Seel, peintre allemand (° 1er mars 1829).
 23 février : Augustin Marcotte de Quivières, peintre français (° 26 mai 1854).
-25 février : Wilhelm von Diez, peintre et illustrateur allemand (° 17 janvier 1839).
-Mars
-7 mars : Alphonse Duvernoy, pianiste et compositeur français (° 30 août 1842).
+25 février : Wilhelm von Diez, peintre et illustrateur allemand (° 17 janvier 1839).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1907</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7 mars : Alphonse Duvernoy, pianiste et compositeur français (° 30 août 1842).
 11 mars : Jean Casimir-Perier ancien président de la République française (° 8 novembre 1847).
 14 mars : Édouard Toudouze, peintre français (° 24 juillet 1848).
 19 mars :
@@ -558,57 +642,363 @@
 23 mars :
 Constantin Pobiedonostsev, homme politique russe (° 21 mai 1827).
 Albert Lefaivre, homme politique, diplomate et écrivain français (° 20 février 1830).
-26 mars : Ettore Roesler Franz, peintre italien (° 11 mai 1845).
-Avril
-14 avril : Bernard de Gélieu, militaire originaire de Neuchâtel au service de la Prusse (°28 septembre 1828).
+26 mars : Ettore Roesler Franz, peintre italien (° 11 mai 1845).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1907</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>14 avril : Bernard de Gélieu, militaire originaire de Neuchâtel au service de la Prusse (°28 septembre 1828).
 23 avril : André Theuriet, poète, romancier et auteur dramatique français (° 8 octobre 1833).
-26 avril : 9 avril : Josef Hellmesberger II, compositeur, violoniste et chef d'orchestre autrichien (° 9 avril 1855).
-Mai
-5 mai : Eugène Girardet, peintre orientaliste français (° 31 mai 1853).
+26 avril : 9 avril : Josef Hellmesberger II, compositeur, violoniste et chef d'orchestre autrichien (° 9 avril 1855).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5 mai : Eugène Girardet, peintre orientaliste français (° 31 mai 1853).
 7 mai : Félix Régamey, peintre, dessinateur et caricaturiste français (° 7 août 1844).
 16 mai : Jean Ernest Mercier, interprète, historien et homme politique français (° 17 septembre 1840).
 21 mai :
 Jean-François Batut, peintre français (° 26 juin 1828).
 Gustave Tritant, organiste et compositeur français (° 11 août 1837).
-24 mai : Zacharie Astruc, critique d’art, poète, peintre et sculpteur français (° 20 février 1833).
-Juin
-1er juin : Richard Mühlfeld, clarinettiste allemand (° 28 février 1856).
+24 mai : Zacharie Astruc, critique d’art, poète, peintre et sculpteur français (° 20 février 1833).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1907</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1907</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er juin : Richard Mühlfeld, clarinettiste allemand (° 28 février 1856).
 5 juin : Armand Cassagne, peintre, aquarelliste, lithographe et écrivain français (° 3 mai 1823).
 10 juin : Numa Coste, peintre, critique, journaliste et historien de l'art français (° 28 août 1843).
 14 juin :
 Adolf Daens, prêtre catholique belge (° 18 décembre 1839).
 Giuseppe Pellizza, peintre italien (° 28 juillet 1868).
 17 juin : Sergio Corazzini, poète italien (° 6 février 1886).
-19 juin : Léon Herbo, peintre belge (° 8 octobre 1850).
-Juillet
-4 juillet : Eugène Baudin, peintre français (° 23 décembre 1843).
+19 juin : Léon Herbo, peintre belge (° 8 octobre 1850).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1907</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1907</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4 juillet : Eugène Baudin, peintre français (° 23 décembre 1843).
 16 juillet :
 Théobald Chartran, peintre français (° 20 juillet 1849).
 Eugène Poubelle, préfet parisien (° 15 avril 1831).
 23 juillet : Antonin Marmontel, compositeur et pédagogue français (° 24 novembre 1850).
 24 juillet : Nicolae Grigorescu, peintre roumain (° 15 mai 1838).
-25 juillet : Auguste Delâtre, peintre, graveur, illustrateur et imprimeur français (° 21 juillet 1822).
-Août
-15 août : Joseph Joachim, violoniste hongrois (° 28 juin 1831).
-21 août : Eugène Lacheurié, compositeur et peintre français (° 7 juin 1831).
-Septembre
-4 septembre : Edvard Grieg, compositeur et pianiste norvégien de la période romantique (° 15 juin 1843).
+25 juillet : Auguste Delâtre, peintre, graveur, illustrateur et imprimeur français (° 21 juillet 1822).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1907</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1907</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>15 août : Joseph Joachim, violoniste hongrois (° 28 juin 1831).
+21 août : Eugène Lacheurié, compositeur et peintre français (° 7 juin 1831).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1907</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1907</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4 septembre : Edvard Grieg, compositeur et pianiste norvégien de la période romantique (° 15 juin 1843).
 17 septembre : Ignaz Brüll, compositeur et pianiste autrichien (° 7 novembre 1846).
-20 septembre : Henri Moissan (Prix Nobel de chimie 1906) (° 28 septembre 1852).
-Octobre
-4 octobre : Alfredo Keil, compositeur, peintre et collectionneur d'art portugais (° 3 juillet 1850).
+20 septembre : Henri Moissan (Prix Nobel de chimie 1906) (° 28 septembre 1852).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1907</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1907</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4 octobre : Alfredo Keil, compositeur, peintre et collectionneur d'art portugais (° 3 juillet 1850).
 10 octobre : Charles Dancla, violoniste et compositeur français (° 19 décembre 1817).
 26 octobre : Khalīl al-Khūrī, propriétaire de presse ottoman (° 28 octobre 1836).
-30 octobre : Đorđe Krstić, peintre réaliste serbe (° 19 avril 1851).
-Novembre
-1er novembre : Alfred Jarry, le créateur du Père Ubu et de la ’Pataphysique (° 8 septembre 1873).
+30 octobre : Đorđe Krstić, peintre réaliste serbe (° 19 avril 1851).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1907</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1907</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er novembre : Alfred Jarry, le créateur du Père Ubu et de la ’Pataphysique (° 8 septembre 1873).
 14 novembre : Andrew Inglis Clark, homme politique britannique puis australien (° 24 février 1848).
 21 novembre : Paula Modersohn-Becker, peintre allemande (° 8 février 1876).
 22 novembre : Asaph Hall, astronome américain (° 15 octobre 1829).
 23 novembre : John Frederick Peto, peintre américain (° 21 mai 1854).
-28 novembre : Stanisław Wyspiański, architecte, auteur de théâtre, poète et peintre polonais (° 15 janvier 1869).
-Décembre
-4 décembre : Luis Sáenz Peña, avocat et homme politique argentin (° 2 avril 1822).
+28 novembre : Stanisław Wyspiański, architecte, auteur de théâtre, poète et peintre polonais (° 15 janvier 1869).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1907</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1907</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4 décembre : Luis Sáenz Peña, avocat et homme politique argentin (° 2 avril 1822).
 5 décembre : Charles Leickert, peintre belge (° 22 septembre 1816).
 16 décembre :
 Asai Chū, peintre de paysages japonais (° 21 juin 1856).
